--- a/CPU控制.xlsx
+++ b/CPU控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="11200"/>
+    <workbookView windowWidth="21600" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="102">
   <si>
     <t>OP</t>
   </si>
@@ -326,16 +326,28 @@
     <t>修改过</t>
   </si>
   <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>ALU_F</t>
-  </si>
-  <si>
-    <t>REG_A</t>
-  </si>
-  <si>
-    <t>REG_B</t>
+    <t>新</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>!(opcode[5]&amp; opcode[4]&amp; opcode[3]&amp; opcode[2]&amp; opcode[1]&amp; opcode[0])</t>
+  </si>
+  <si>
+    <t>!opcode&amp;!func</t>
+  </si>
+  <si>
+    <t>opcode[5]&amp;!opcode[3]</t>
+  </si>
+  <si>
+    <t>opcode[5]&amp;opcode[3]</t>
+  </si>
+  <si>
+    <t>(opcode[5]&amp; opcode[4]&amp; opcode[3]&amp; opcode[2]&amp; opcode[1]&amp; opcode[0])</t>
+  </si>
+  <si>
+    <t>!(opcode[3]&amp;opcode[2])</t>
   </si>
 </sst>
 </file>
@@ -576,6 +588,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,12 +702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -708,12 +738,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -732,12 +756,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,12 +775,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,16 +941,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -947,25 +959,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,56 +980,68 @@
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1097,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1093,8 +1117,26 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1102,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
@@ -1120,7 +1162,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
@@ -1128,6 +1170,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1654,20 +1711,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AA50"/>
+  <dimension ref="B1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="11.3727272727273" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.6272727272727" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.3727272727273" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3727272727273" style="10" customWidth="1"/>
-    <col min="8" max="22" width="11.3727272727273" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="11.3727272727273" style="9" customWidth="1"/>
+    <col min="1" max="4" width="11.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="10" customWidth="1"/>
+    <col min="8" max="22" width="11.375" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="11.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:22">
@@ -1719,7 +1776,7 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2"/>
@@ -1765,7 +1822,7 @@
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="2"/>
@@ -1811,7 +1868,7 @@
       <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="3"/>
@@ -1858,7 +1915,7 @@
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="1"/>
@@ -1907,7 +1964,7 @@
       <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="38" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="5"/>
@@ -1956,7 +2013,7 @@
       <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="38" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="5"/>
@@ -2005,7 +2062,7 @@
       <c r="H8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="39" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="6"/>
@@ -2054,7 +2111,7 @@
       <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="38" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5"/>
@@ -2103,7 +2160,7 @@
       <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="40" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2154,7 +2211,7 @@
       <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="40" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2205,7 +2262,7 @@
       <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="40" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2256,7 +2313,7 @@
       <c r="H13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="40" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2307,7 +2364,7 @@
       <c r="H14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -2501,7 +2558,7 @@
       <c r="G24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="23" t="s">
         <v>68</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2510,35 +2567,35 @@
       <c r="M24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="19" t="s">
+      <c r="R24" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="T24" s="19" t="s">
+      <c r="T24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="U24" s="19" t="s">
+      <c r="U24" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="V24" s="19" t="s">
+      <c r="V24" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="5:22">
+    <row r="25" ht="27" spans="5:22">
       <c r="E25" s="9" t="s">
         <v>80</v>
       </c>
@@ -2566,7 +2623,7 @@
       <c r="P25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="19" t="s">
+      <c r="Q25" s="23" t="s">
         <v>81</v>
       </c>
       <c r="R25" s="9" t="s">
@@ -2593,7 +2650,7 @@
       <c r="H26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="42" t="s">
         <v>47</v>
       </c>
       <c r="J26" s="7" t="s">
@@ -2635,9 +2692,9 @@
       <c r="V26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
     </row>
     <row r="27" s="7" customFormat="1" spans="7:25">
       <c r="G27" s="12" t="str">
@@ -2647,7 +2704,7 @@
       <c r="H27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="42" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="7" t="s">
@@ -2689,9 +2746,9 @@
       <c r="V27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
     </row>
     <row r="28" s="7" customFormat="1" spans="7:25">
       <c r="G28" s="12" t="str">
@@ -2701,7 +2758,7 @@
       <c r="H28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="42" t="s">
         <v>47</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -2743,9 +2800,9 @@
       <c r="V28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="7:25">
       <c r="G29" s="12" t="str">
@@ -2755,7 +2812,7 @@
       <c r="H29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="42" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -2797,9 +2854,9 @@
       <c r="V29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
     </row>
     <row r="30" s="7" customFormat="1" ht="12" customHeight="1" spans="7:25">
       <c r="G30" s="13" t="str">
@@ -2809,7 +2866,7 @@
       <c r="H30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="J30" s="11" t="s">
@@ -2851,48 +2908,78 @@
       <c r="V30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-    </row>
-    <row r="31" customFormat="1" spans="6:27">
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+    </row>
+    <row r="31" spans="6:27">
       <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="15" t="str">
+        <f t="shared" ref="G31:G42" si="0">_xlfn.TEXTJOIN("",TRUE,M31,N31,O31,P31,Q31,R31,S31,T31,U31,V31)</f>
+        <v>101011x000</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="AA31" s="24"/>
-    </row>
-    <row r="32" spans="6:27">
-      <c r="F32" s="14"/>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA31" s="34"/>
+    </row>
+    <row r="32" spans="7:27">
       <c r="G32" s="15" t="str">
-        <f t="shared" ref="G32:G43" si="0">_xlfn.TEXTJOIN("",TRUE,M32,N32,O32,P32,Q32,R32,S32,T32,U32,V32)</f>
+        <f t="shared" si="0"/>
         <v>101011x000</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="20" t="s">
-        <v>60</v>
+      <c r="L32" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>18</v>
@@ -2924,143 +3011,144 @@
       <c r="V32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA32" s="24"/>
-    </row>
-    <row r="33" spans="7:27">
-      <c r="G33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>101011x000</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-    </row>
-    <row r="34" s="8" customFormat="1" spans="7:25">
-      <c r="G34" s="16" t="str">
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="7:25">
+      <c r="G33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>101011x001</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-    </row>
-    <row r="35" spans="7:27">
-      <c r="G35" s="17" t="str">
+      <c r="M33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+    </row>
+    <row r="34" spans="7:27">
+      <c r="G34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>101011x001</v>
       </c>
+      <c r="H34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+    </row>
+    <row r="35" spans="7:27">
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>100x01x0x1</v>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>16</v>
+      <c r="K35" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>18</v>
+      <c r="N35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>18</v>
@@ -3072,13 +3160,16 @@
         <v>19</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
+      <c r="W35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
     </row>
     <row r="36" spans="7:27">
       <c r="G36" s="15" t="str">
@@ -3086,13 +3177,13 @@
         <v>100x01x0x1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -3129,136 +3220,136 @@
         <v>18</v>
       </c>
       <c r="W36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
     </row>
     <row r="37" spans="7:27">
-      <c r="G37" s="15" t="str">
+      <c r="G37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1xxx01x0xx</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+    </row>
+    <row r="38" spans="6:27">
+      <c r="F38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>100x01x0x1</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="21" t="s">
+      <c r="H38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W37" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-    </row>
-    <row r="38" spans="7:27">
-      <c r="G38" s="10" t="str">
+      <c r="M38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+    </row>
+    <row r="39" spans="6:26">
+      <c r="F39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>1xxx01x0xx</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-    </row>
-    <row r="39" spans="6:27">
-      <c r="F39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>100x01x0x1</v>
+        <v>101x0101x1</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="21" t="s">
-        <v>83</v>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>18</v>
@@ -3267,7 +3358,7 @@
         <v>19</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>20</v>
@@ -3279,10 +3370,10 @@
         <v>18</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>20</v>
@@ -3290,198 +3381,951 @@
       <c r="V39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
+      <c r="Z39" s="34"/>
     </row>
     <row r="40" spans="6:26">
       <c r="F40" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>101x0101x1</v>
+        <v>1011111001</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z40" s="24"/>
-    </row>
-    <row r="41" spans="6:26">
-      <c r="F41" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="M40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z40" s="34"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="12" customHeight="1" spans="7:22">
       <c r="G41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>1011111001</v>
+        <v>0xxxxxxxxx</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12">
+      <c r="G42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="6:22">
+      <c r="F45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22">
+      <c r="G46" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="7:22">
+      <c r="G47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="7:22">
+      <c r="G48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="7:22">
+      <c r="G49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="7:22">
+      <c r="G50" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="7:22">
+      <c r="G51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="7:22">
+      <c r="G52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="7:22">
+      <c r="G53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V53" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="7:22">
+      <c r="G54" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="7:22">
+      <c r="G55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="7:22">
+      <c r="G56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="7:22">
+      <c r="G57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="7:22">
+      <c r="G58" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="7:22">
+      <c r="G59" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="29">
+        <v>101011</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="7:22">
+      <c r="G60" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="8" t="s">
+      <c r="H60" s="20"/>
+      <c r="I60" s="28">
+        <v>100011</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L60" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z41" s="24"/>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="12" customHeight="1" spans="7:22">
-      <c r="G42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>0xxxxxxxxx</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="M60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="7:22">
+      <c r="G61" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12">
-      <c r="G43" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12">
-      <c r="C47" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="9" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="31">
+        <v>111111</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="13:22">
+      <c r="M62" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="9" t="s">
+      <c r="N62" s="22" t="s">
         <v>97</v>
       </c>
+      <c r="R62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="V62" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="28"/>
     </row>
   </sheetData>
   <sortState ref="H2:V34">
